--- a/Project1/s01_2.xlsx
+++ b/Project1/s01_2.xlsx
@@ -386,2382 +386,2382 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>19012098.77537653</v>
+        <v>5886521.992826281</v>
       </c>
       <c r="B2">
-        <v>11896697.76938966</v>
+        <v>1638795.58056718</v>
       </c>
       <c r="C2">
-        <v>26127499.78136341</v>
+        <v>10134248.40508538</v>
       </c>
       <c r="D2">
-        <v>8130032.003940802</v>
+        <v>-609814.9537635054</v>
       </c>
       <c r="E2">
-        <v>29894165.54681226</v>
+        <v>12382858.93941607</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>18953376.58492141</v>
+        <v>5690484.116914608</v>
       </c>
       <c r="B3">
-        <v>11715616.67729433</v>
+        <v>1140023.759539239</v>
       </c>
       <c r="C3">
-        <v>26191136.49254848</v>
+        <v>10240944.47428998</v>
       </c>
       <c r="D3">
-        <v>7884178.021952367</v>
+        <v>-1268844.44490017</v>
       </c>
       <c r="E3">
-        <v>30022575.14789044</v>
+        <v>12649812.67872939</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>20430616.51442828</v>
+        <v>5597729.126061376</v>
       </c>
       <c r="B4">
-        <v>13070920.97800736</v>
+        <v>950552.4330085246</v>
       </c>
       <c r="C4">
-        <v>27790312.05084921</v>
+        <v>10244905.81911423</v>
       </c>
       <c r="D4">
-        <v>9174933.499882275</v>
+        <v>-1509514.306868243</v>
       </c>
       <c r="E4">
-        <v>31686299.5289743</v>
+        <v>12704972.558991</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>21331028.03488606</v>
+        <v>5520369.687717877</v>
       </c>
       <c r="B5">
-        <v>13849788.8182544</v>
+        <v>803754.924903932</v>
       </c>
       <c r="C5">
-        <v>28812267.25151771</v>
+        <v>10236984.45053182</v>
       </c>
       <c r="D5">
-        <v>9889460.002392883</v>
+        <v>-1693070.108703279</v>
       </c>
       <c r="E5">
-        <v>32772596.06737924</v>
+        <v>12733809.48413903</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>22739635.59603607</v>
+        <v>5455658.840630874</v>
       </c>
       <c r="B6">
-        <v>15137215.39068031</v>
+        <v>688267.4669724833</v>
       </c>
       <c r="C6">
-        <v>30342055.80139183</v>
+        <v>10223050.21428926</v>
       </c>
       <c r="D6">
-        <v>11112737.23435769</v>
+        <v>-1835437.080746775</v>
       </c>
       <c r="E6">
-        <v>34366533.95771445</v>
+        <v>12746754.76200852</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>27232341.8918872</v>
+        <v>5401339.751856716</v>
       </c>
       <c r="B7">
-        <v>19509076.02237292</v>
+        <v>596139.8932506144</v>
       </c>
       <c r="C7">
-        <v>34955607.76140147</v>
+        <v>10206539.61046282</v>
       </c>
       <c r="D7">
-        <v>15420626.03569163</v>
+        <v>-1947579.25740897</v>
       </c>
       <c r="E7">
-        <v>39044057.74808276</v>
+        <v>12750258.7611224</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>22606384.47706296</v>
+        <v>5355558.265305819</v>
       </c>
       <c r="B8">
-        <v>14762582.63299122</v>
+        <v>521684.05053146</v>
       </c>
       <c r="C8">
-        <v>30450186.3211347</v>
+        <v>10189432.48008018</v>
       </c>
       <c r="D8">
-        <v>10610324.75572322</v>
+        <v>-2037214.387372004</v>
       </c>
       <c r="E8">
-        <v>34602444.1984027</v>
+        <v>12748330.91798364</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>21936509.10050912</v>
+        <v>5316791.053868745</v>
       </c>
       <c r="B9">
-        <v>13972456.92666155</v>
+        <v>460755.7634545853</v>
       </c>
       <c r="C9">
-        <v>29900561.2743567</v>
+        <v>10172826.3442829</v>
       </c>
       <c r="D9">
-        <v>9756542.37002025</v>
+        <v>-2109874.039254281</v>
       </c>
       <c r="E9">
-        <v>34116475.830998</v>
+        <v>12743456.14699177</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>21855261.62382197</v>
+        <v>5283786.591044897</v>
       </c>
       <c r="B10">
-        <v>13771222.18288026</v>
+        <v>410289.1038207896</v>
       </c>
       <c r="C10">
-        <v>29939301.06476368</v>
+        <v>10157284.078269</v>
       </c>
       <c r="D10">
-        <v>9491790.203837469</v>
+        <v>-2169584.627495646</v>
       </c>
       <c r="E10">
-        <v>34218733.04380646</v>
+        <v>12737157.80958544</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>18269128.52050717</v>
+        <v>5255516.654745936</v>
       </c>
       <c r="B11">
-        <v>10065343.64099847</v>
+        <v>367985.3366160542</v>
       </c>
       <c r="C11">
-        <v>26472913.40001587</v>
+        <v>10143047.97287582</v>
       </c>
       <c r="D11">
-        <v>5722522.25584358</v>
+        <v>-2219317.456026144</v>
       </c>
       <c r="E11">
-        <v>30815734.78517076</v>
+        <v>12730350.76551802</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>20641927.693694</v>
+        <v>5231136.484063927</v>
       </c>
       <c r="B12">
-        <v>12318619.21432011</v>
+        <v>332100.3948584031</v>
       </c>
       <c r="C12">
-        <v>28965236.17306789</v>
+        <v>10130172.57326945</v>
       </c>
       <c r="D12">
-        <v>7912525.857368177</v>
+        <v>-2261292.655706502</v>
       </c>
       <c r="E12">
-        <v>33371329.53001982</v>
+        <v>12723565.62383436</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>20462580.27538474</v>
+        <v>5209952.04509348</v>
       </c>
       <c r="B13">
-        <v>12019951.19560312</v>
+        <v>301296.9526923541</v>
       </c>
       <c r="C13">
-        <v>28905209.35516635</v>
+        <v>10118607.13749461</v>
       </c>
       <c r="D13">
-        <v>7550693.328275681</v>
+        <v>-2297188.090580219</v>
       </c>
       <c r="E13">
-        <v>33374467.22249379</v>
+        <v>12717092.18076718</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>20971848.32551727</v>
+        <v>5191393.137370413</v>
       </c>
       <c r="B14">
-        <v>12041960.39813499</v>
+        <v>274539.8103608424</v>
       </c>
       <c r="C14">
-        <v>29901736.25289954</v>
+        <v>10108246.46437998</v>
       </c>
       <c r="D14">
-        <v>7314763.277823048</v>
+        <v>-2328285.116160863</v>
       </c>
       <c r="E14">
-        <v>34628933.37321149</v>
+        <v>12711071.39090169</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>20913126.13506214</v>
+        <v>5174991.298811199</v>
       </c>
       <c r="B15">
-        <v>11869112.35452654</v>
+        <v>251020.8506631022</v>
       </c>
       <c r="C15">
-        <v>29957139.91559774</v>
+        <v>10098961.7469593</v>
       </c>
       <c r="D15">
-        <v>7081500.656924635</v>
+        <v>-2355571.652207215</v>
       </c>
       <c r="E15">
-        <v>34744751.61319965</v>
+        <v>12705554.24982961</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>22390366.06456902</v>
+        <v>5160361.652977668</v>
       </c>
       <c r="B16">
-        <v>13232249.81623572</v>
+        <v>230104.4988330593</v>
       </c>
       <c r="C16">
-        <v>31548482.31290232</v>
+        <v>10090618.80712228</v>
       </c>
       <c r="D16">
-        <v>8384235.920803335</v>
+        <v>-2379815.985163631</v>
       </c>
       <c r="E16">
-        <v>36396496.20833471</v>
+        <v>12700539.29111897</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>23290777.58502679</v>
+        <v>5147187.995255033</v>
       </c>
       <c r="B17">
-        <v>14018572.81607346</v>
+        <v>211287.5942763034</v>
       </c>
       <c r="C17">
-        <v>32562982.35398013</v>
+        <v>10083088.39623376</v>
       </c>
       <c r="D17">
-        <v>9110164.106000455</v>
+        <v>-2401620.244141897</v>
       </c>
       <c r="E17">
-        <v>37471391.06405313</v>
+        <v>12695996.23465196</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>24699385.14617681</v>
+        <v>5135210.540038114</v>
       </c>
       <c r="B18">
-        <v>15313096.82457975</v>
+        <v>194169.5211816821</v>
       </c>
       <c r="C18">
-        <v>34085673.46777387</v>
+        <v>10076251.55889455</v>
       </c>
       <c r="D18">
-        <v>10344295.92975394</v>
+        <v>-2421459.595960924</v>
       </c>
       <c r="E18">
-        <v>39054474.36259969</v>
+        <v>12691880.67603715</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>29192091.44202793</v>
+        <v>5124215.854133649</v>
       </c>
       <c r="B19">
-        <v>19691715.98788828</v>
+        <v>178429.7299054349</v>
       </c>
       <c r="C19">
-        <v>38692466.89616759</v>
+        <v>10070001.97836186</v>
       </c>
       <c r="D19">
-        <v>14662521.01322567</v>
+        <v>-2439711.29428813</v>
       </c>
       <c r="E19">
-        <v>43721661.8708302</v>
+        <v>12688143.00255543</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>24566134.02720369</v>
+        <v>5114028.586301694</v>
       </c>
       <c r="B20">
-        <v>14951659.71847528</v>
+        <v>163810.6449038032</v>
       </c>
       <c r="C20">
-        <v>34180608.33593211</v>
+        <v>10064246.52769958</v>
       </c>
       <c r="D20">
-        <v>9862064.458699467</v>
+        <v>-2456676.441584452</v>
       </c>
       <c r="E20">
-        <v>39270203.59570792</v>
+        <v>12684733.61418784</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>23896258.65064986</v>
+        <v>5104504.672458874</v>
       </c>
       <c r="B21">
-        <v>14167666.00513967</v>
+        <v>150104.5429228945</v>
       </c>
       <c r="C21">
-        <v>33624851.29616005</v>
+        <v>10058904.80199485</v>
       </c>
       <c r="D21">
-        <v>9017660.147000643</v>
+        <v>-2472596.460233045</v>
       </c>
       <c r="E21">
-        <v>38774857.15429908</v>
+        <v>12681605.80515079</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>23815011.17396271</v>
+        <v>5095525.753247567</v>
       </c>
       <c r="B22">
-        <v>13972273.30931163</v>
+        <v>137143.38965517</v>
       </c>
       <c r="C22">
-        <v>33657749.03861378</v>
+        <v>10053908.11683996</v>
       </c>
       <c r="D22">
-        <v>8761842.622148078</v>
+        <v>-2487665.680871489</v>
       </c>
       <c r="E22">
-        <v>38868179.72577733</v>
+        <v>12678717.18736662</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>20228878.0706479</v>
+        <v>5086994.587653844</v>
       </c>
       <c r="B23">
-        <v>10271961.04385342</v>
+        <v>124790.9042060571</v>
       </c>
       <c r="C23">
-        <v>30185795.09744238</v>
+        <v>10049198.27110163</v>
       </c>
       <c r="D23">
-        <v>5001087.559325215</v>
+        <v>-2502041.050858806</v>
       </c>
       <c r="E23">
-        <v>35456668.58197059</v>
+        <v>12676030.22616649</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>22601677.24383474</v>
+        <v>5078831.28495357</v>
       </c>
       <c r="B24">
-        <v>12530540.37174508</v>
+        <v>112936.3180370554</v>
       </c>
       <c r="C24">
-        <v>32672814.1159244</v>
+        <v>10044726.25187008</v>
       </c>
       <c r="D24">
-        <v>7199202.553492568</v>
+        <v>-2515849.684461048</v>
       </c>
       <c r="E24">
-        <v>38004151.93417691</v>
+        <v>12673512.25436819</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>22422329.82552547</v>
+        <v>5070970.208975894</v>
       </c>
       <c r="B25">
-        <v>12236925.98761576</v>
+        <v>101489.4349119104</v>
       </c>
       <c r="C25">
-        <v>32607733.66343519</v>
+        <v>10040450.98303988</v>
       </c>
       <c r="D25">
-        <v>6845098.891539836</v>
+        <v>-2529194.779227745</v>
       </c>
       <c r="E25">
-        <v>37999560.75951111</v>
+        <v>12671135.19717953</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>22931597.87565801</v>
+        <v>5063357.434725525</v>
       </c>
       <c r="B26">
-        <v>12308912.77300526</v>
+        <v>90376.69849088509</v>
       </c>
       <c r="C26">
-        <v>33554282.97831075</v>
+        <v>10036338.17096017</v>
       </c>
       <c r="D26">
-        <v>6685602.958190939</v>
+        <v>-2542160.283704637</v>
       </c>
       <c r="E26">
-        <v>39177592.79312507</v>
+        <v>12668875.15315569</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>22872875.68520288</v>
+        <v>5055948.658808764</v>
       </c>
       <c r="B27">
-        <v>12139252.17143448</v>
+        <v>79538.04661352094</v>
       </c>
       <c r="C27">
-        <v>33606499.19897129</v>
+        <v>10032359.27100401</v>
       </c>
       <c r="D27">
-        <v>6457215.109221024</v>
+        <v>-2554814.602239393</v>
       </c>
       <c r="E27">
-        <v>39288536.26118474</v>
+        <v>12666711.91985692</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>24350115.61470976</v>
+        <v>5048707.482693126</v>
       </c>
       <c r="B28">
-        <v>13505419.30943063</v>
+        <v>68924.3841977343</v>
       </c>
       <c r="C28">
-        <v>35194811.91998889</v>
+        <v>10028490.58118852</v>
       </c>
       <c r="D28">
-        <v>7764583.863133935</v>
+        <v>-2567213.551061458</v>
       </c>
       <c r="E28">
-        <v>40935647.36628559</v>
+        <v>12664628.51644771</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>25250527.13516753</v>
+        <v>5041604.002277447</v>
       </c>
       <c r="B29">
-        <v>14294620.48803209</v>
+        <v>58495.54571910296</v>
       </c>
       <c r="C29">
-        <v>36206433.78230298</v>
+        <v>10024712.45883579</v>
       </c>
       <c r="D29">
-        <v>8494913.842897605</v>
+        <v>-2579402.727764603</v>
       </c>
       <c r="E29">
-        <v>42006140.42743745</v>
+        <v>12662610.7323195</v>
       </c>
     </row>
     <row r="30">
       <c r="A30">
-        <v>26659134.69631755</v>
+        <v>5034613.649118841</v>
       </c>
       <c r="B30">
-        <v>15591877.11949459</v>
+        <v>48218.64734351635</v>
       </c>
       <c r="C30">
-        <v>37726392.27314051</v>
+        <v>10021008.65089417</v>
       </c>
       <c r="D30">
-        <v>9733224.852820016</v>
+        <v>-2591419.418085153</v>
       </c>
       <c r="E30">
-        <v>43585044.53981508</v>
+        <v>12660646.71632284</v>
       </c>
     </row>
     <row r="31">
       <c r="A31">
-        <v>31151840.99216867</v>
+        <v>5027716.238414478</v>
       </c>
       <c r="B31">
-        <v>19973088.98659495</v>
+        <v>38066.75071244221</v>
       </c>
       <c r="C31">
-        <v>42330592.99774239</v>
+        <v>10017365.72611651</v>
       </c>
       <c r="D31">
-        <v>14055415.13456484</v>
+        <v>-2603294.135498073</v>
       </c>
       <c r="E31">
-        <v>48248266.84977251</v>
+        <v>12658726.61232703</v>
       </c>
     </row>
     <row r="32">
       <c r="A32">
-        <v>26525883.57734443</v>
+        <v>5020895.186847817</v>
       </c>
       <c r="B32">
-        <v>15235490.8531185</v>
+        <v>28017.77705656551</v>
       </c>
       <c r="C32">
-        <v>37816276.30157037</v>
+        <v>10013772.59663907</v>
       </c>
       <c r="D32">
-        <v>9258717.974536881</v>
+        <v>-2615051.867889649</v>
       </c>
       <c r="E32">
-        <v>43793049.18015198</v>
+        <v>12656842.24158528</v>
       </c>
     </row>
     <row r="33">
       <c r="A33">
-        <v>25856008.2007906</v>
+        <v>5014136.869991124</v>
       </c>
       <c r="B33">
-        <v>14453825.79203484</v>
+        <v>18053.62311456725</v>
       </c>
       <c r="C33">
-        <v>37258190.60954636</v>
+        <v>10010220.11686768</v>
       </c>
       <c r="D33">
-        <v>8417875.02912955</v>
+        <v>-2626713.089472482</v>
       </c>
       <c r="E33">
-        <v>43294141.37245165</v>
+        <v>12654986.82945473</v>
       </c>
     </row>
     <row r="34">
       <c r="A34">
-        <v>25774760.72410344</v>
+        <v>5007430.094363853</v>
       </c>
       <c r="B34">
-        <v>14260637.09860059</v>
+        <v>8159.440245118923</v>
       </c>
       <c r="C34">
-        <v>37288884.34960629</v>
+        <v>10006700.74848259</v>
       </c>
       <c r="D34">
-        <v>8165428.235061325</v>
+        <v>-2638294.58381314</v>
       </c>
       <c r="E34">
-        <v>43384093.21314556</v>
+        <v>12653154.77254085</v>
       </c>
     </row>
     <row r="35">
       <c r="A35">
-        <v>22188627.62078864</v>
+        <v>5000765.663689345</v>
       </c>
       <c r="B35">
-        <v>10562408.78467895</v>
+        <v>-1676.954145219177</v>
       </c>
       <c r="C35">
-        <v>33814846.45689833</v>
+        <v>10003208.28152391</v>
       </c>
       <c r="D35">
-        <v>4407860.301080555</v>
+        <v>-2649810.114365672</v>
       </c>
       <c r="E35">
-        <v>39969394.94049673</v>
+        <v>12651341.44174436</v>
       </c>
     </row>
     <row r="36">
       <c r="A36">
-        <v>24561426.79397548</v>
+        <v>4994136.022542462</v>
       </c>
       <c r="B36">
-        <v>12822956.39178193</v>
+        <v>-11465.55765571725</v>
       </c>
       <c r="C36">
-        <v>36299897.19616903</v>
+        <v>9999737.602740642</v>
       </c>
       <c r="D36">
-        <v>6608985.518534605</v>
+        <v>-2661270.971538241</v>
       </c>
       <c r="E36">
-        <v>42513868.06941634</v>
+        <v>12649543.01662317</v>
       </c>
     </row>
     <row r="37">
       <c r="A37">
-        <v>24382079.37566621</v>
+        <v>4987534.963579597</v>
       </c>
       <c r="B37">
-        <v>12531198.78589833</v>
+        <v>-21214.57641498838</v>
       </c>
       <c r="C37">
-        <v>36232959.9654341</v>
+        <v>9996284.503574181</v>
       </c>
       <c r="D37">
-        <v>6257721.553857222</v>
+        <v>-2672686.419552329</v>
       </c>
       <c r="E37">
-        <v>42506437.1974752</v>
+        <v>12647756.34671152</v>
       </c>
     </row>
     <row r="38">
       <c r="A38">
-        <v>24891347.42579874</v>
+        <v>4980957.38700638</v>
       </c>
       <c r="B38">
-        <v>12635763.74938541</v>
+        <v>-30930.74723597057</v>
       </c>
       <c r="C38">
-        <v>37146931.10221208</v>
+        <v>9992845.52124873</v>
       </c>
       <c r="D38">
-        <v>6148049.644347783</v>
+        <v>-2684064.061806158</v>
       </c>
       <c r="E38">
-        <v>43634645.2072497</v>
+        <v>12645978.83581892</v>
       </c>
     </row>
     <row r="39">
       <c r="A39">
-        <v>24832625.23534362</v>
+        <v>4974399.102962494</v>
       </c>
       <c r="B39">
-        <v>12466970.68376821</v>
+        <v>-40619.60150488652</v>
       </c>
       <c r="C39">
-        <v>37198279.78691903</v>
+        <v>9989417.807429874</v>
       </c>
       <c r="D39">
-        <v>5920988.577124335</v>
+        <v>-2695410.139846866</v>
       </c>
       <c r="E39">
-        <v>43744261.89356291</v>
+        <v>12644208.34577185</v>
       </c>
     </row>
     <row r="40">
       <c r="A40">
-        <v>26309865.1648505</v>
+        <v>4967856.669166118</v>
       </c>
       <c r="B40">
-        <v>13833931.08414573</v>
+        <v>-50285.681450109</v>
       </c>
       <c r="C40">
-        <v>38785799.24555527</v>
+        <v>9985999.019782346</v>
       </c>
       <c r="D40">
-        <v>7229570.521157391</v>
+        <v>-2706729.778179358</v>
       </c>
       <c r="E40">
-        <v>45390159.80854361</v>
+        <v>12642443.11651159</v>
       </c>
     </row>
     <row r="41">
       <c r="A41">
-        <v>27210276.68530827</v>
+        <v>4961327.257526753</v>
       </c>
       <c r="B41">
-        <v>14623853.58910911</v>
+        <v>-59932.71745711938</v>
       </c>
       <c r="C41">
-        <v>39796699.78150743</v>
+        <v>9982587.232510626</v>
       </c>
       <c r="D41">
-        <v>7961003.674393334</v>
+        <v>-2718027.184835226</v>
       </c>
       <c r="E41">
-        <v>46459549.69622321</v>
+        <v>12640681.69988873</v>
       </c>
     </row>
     <row r="42">
       <c r="A42">
-        <v>28618884.24645829</v>
+        <v>4954808.54455775</v>
       </c>
       <c r="B42">
-        <v>15921761.85531704</v>
+        <v>-69563.77349512279</v>
       </c>
       <c r="C42">
-        <v>41316006.63759954</v>
+        <v>9979180.862610623</v>
       </c>
       <c r="D42">
-        <v>9200311.273658276</v>
+        <v>-2729305.815771464</v>
       </c>
       <c r="E42">
-        <v>48037457.2192583</v>
+        <v>12638922.90488696</v>
       </c>
     </row>
     <row r="43">
       <c r="A43">
-        <v>33111590.54230941</v>
+        <v>4948298.621342039</v>
       </c>
       <c r="B43">
-        <v>20303557.82144503</v>
+        <v>-79181.36642342806</v>
       </c>
       <c r="C43">
-        <v>45919623.2631738</v>
+        <v>9975778.609107506</v>
       </c>
       <c r="D43">
-        <v>13523394.85777837</v>
+        <v>-2740568.509672562</v>
       </c>
       <c r="E43">
-        <v>52699786.22684045</v>
+        <v>12637165.75235664</v>
       </c>
     </row>
     <row r="44">
       <c r="A44">
-        <v>28485633.12748517</v>
+        <v>4941795.919562297</v>
       </c>
       <c r="B44">
-        <v>15566478.32303838</v>
+        <v>-88787.5638915766</v>
       </c>
       <c r="C44">
-        <v>41404787.93193196</v>
+        <v>9972379.40301617</v>
       </c>
       <c r="D44">
-        <v>8727490.881641943</v>
+        <v>-2751817.598518568</v>
       </c>
       <c r="E44">
-        <v>48243775.3733284</v>
+        <v>12635409.43764316</v>
       </c>
     </row>
     <row r="45">
       <c r="A45">
-        <v>27815757.75093134</v>
+        <v>4935299.150729215</v>
       </c>
       <c r="B45">
-        <v>14785268.42479354</v>
+        <v>-98384.06468919385</v>
       </c>
       <c r="C45">
-        <v>40846247.07706913</v>
+        <v>9968982.366147622</v>
       </c>
       <c r="D45">
-        <v>7887344.047725685</v>
+        <v>-2763054.998298978</v>
       </c>
       <c r="E45">
-        <v>47744171.45413699</v>
+        <v>12633653.29975741</v>
       </c>
     </row>
     <row r="46">
       <c r="A46">
-        <v>27734510.27424418</v>
+        <v>4928807.256253012</v>
       </c>
       <c r="B46">
-        <v>14592473.33752419</v>
+        <v>-107972.2647020007</v>
       </c>
       <c r="C46">
-        <v>40876547.21096417</v>
+        <v>9965586.777208023</v>
       </c>
       <c r="D46">
-        <v>7635499.222339816</v>
+        <v>-2774282.283453195</v>
       </c>
       <c r="E46">
-        <v>47833521.32614855</v>
+        <v>12631896.79595922</v>
       </c>
     </row>
     <row r="47">
       <c r="A47">
-        <v>24148377.17092938</v>
+        <v>4922319.366423458</v>
       </c>
       <c r="B47">
-        <v>10894578.91611907</v>
+        <v>-117553.3110594507</v>
       </c>
       <c r="C47">
-        <v>37402175.42573969</v>
+        <v>9962192.043906366</v>
       </c>
       <c r="D47">
-        <v>3878441.932897035</v>
+        <v>-2785500.747967542</v>
       </c>
       <c r="E47">
-        <v>44418312.40896173</v>
+        <v>12630139.48081446</v>
       </c>
     </row>
     <row r="48">
       <c r="A48">
-        <v>26521176.34411622</v>
+        <v>4915834.766708927</v>
       </c>
       <c r="B48">
-        <v>13155402.47601269</v>
+        <v>-127128.1465927521</v>
       </c>
       <c r="C48">
-        <v>39886950.21221974</v>
+        <v>9958797.680010606</v>
       </c>
       <c r="D48">
-        <v>6079989.18372504</v>
+        <v>-2796711.455527723</v>
       </c>
       <c r="E48">
-        <v>46962363.50450739</v>
+        <v>12628380.98894558</v>
       </c>
     </row>
     <row r="49">
       <c r="A49">
-        <v>26341828.92580695</v>
+        <v>4909352.870068554</v>
       </c>
       <c r="B49">
-        <v>12863864.59124591</v>
+        <v>-136697.5463403808</v>
       </c>
       <c r="C49">
-        <v>39819793.26036799</v>
+        <v>9955403.286477488</v>
       </c>
       <c r="D49">
-        <v>5729061.253497753</v>
+        <v>-2807915.28069214</v>
       </c>
       <c r="E49">
-        <v>46954596.59811615</v>
+        <v>12626621.02082925</v>
       </c>
     </row>
     <row r="50">
       <c r="A50">
-        <v>26851096.97593948</v>
+        <v>4902873.19420461</v>
       </c>
       <c r="B50">
-        <v>12991394.44074832</v>
+        <v>-146262.1475257687</v>
       </c>
       <c r="C50">
-        <v>40710799.51113065</v>
+        <v>9952008.535934988</v>
       </c>
       <c r="D50">
-        <v>5654511.106318642</v>
+        <v>-2819112.942696935</v>
       </c>
       <c r="E50">
-        <v>48047682.84556033</v>
+        <v>12624859.33110615</v>
       </c>
     </row>
     <row r="51">
       <c r="A51">
-        <v>26792374.78548436</v>
+        <v>4896395.342873648</v>
       </c>
       <c r="B51">
-        <v>12822221.59687272</v>
+        <v>-155822.4741758499</v>
       </c>
       <c r="C51">
-        <v>40762527.974096</v>
+        <v>9948613.159923146</v>
       </c>
       <c r="D51">
-        <v>5426869.218370847</v>
+        <v>-2830305.033213535</v>
       </c>
       <c r="E51">
-        <v>48157880.35259787</v>
+        <v>12623095.71896083</v>
       </c>
     </row>
     <row r="52">
       <c r="A52">
-        <v>28269614.71499124</v>
+        <v>4889918.99053221</v>
       </c>
       <c r="B52">
-        <v>14188764.19007318</v>
+        <v>-165378.9573395438</v>
       </c>
       <c r="C52">
-        <v>42350465.23990929</v>
+        <v>9945216.938403964</v>
       </c>
       <c r="D52">
-        <v>6734812.181467414</v>
+        <v>-2841492.039142078</v>
       </c>
       <c r="E52">
-        <v>49804417.24851506</v>
+        <v>12621330.0202065</v>
       </c>
     </row>
     <row r="53">
       <c r="A53">
-        <v>29170026.23544901</v>
+        <v>4883443.869722137</v>
       </c>
       <c r="B53">
-        <v>14978231.86141726</v>
+        <v>-174931.9516932294</v>
       </c>
       <c r="C53">
-        <v>43361820.60948076</v>
+        <v>9941819.691137504</v>
       </c>
       <c r="D53">
-        <v>7465549.726710077</v>
+        <v>-2852674.361329481</v>
       </c>
       <c r="E53">
-        <v>50874502.74418794</v>
+        <v>12619562.10077376</v>
       </c>
     </row>
     <row r="54">
       <c r="A54">
-        <v>30578633.79659903</v>
+        <v>4876969.760706661</v>
       </c>
       <c r="B54">
-        <v>16275649.23819982</v>
+        <v>-184481.7491793092</v>
       </c>
       <c r="C54">
-        <v>44881618.35499823</v>
+        <v>9938421.270592632</v>
       </c>
       <c r="D54">
-        <v>8704106.575384893</v>
+        <v>-2863852.329941497</v>
       </c>
       <c r="E54">
-        <v>52453161.01781316</v>
+        <v>12617791.85135482</v>
       </c>
     </row>
     <row r="55">
       <c r="A55">
-        <v>35071340.09245015</v>
+        <v>4870496.482955685</v>
       </c>
       <c r="B55">
-        <v>20656919.19914009</v>
+        <v>-194028.5902082548</v>
       </c>
       <c r="C55">
-        <v>49485760.98576021</v>
+        <v>9935021.556119625</v>
       </c>
       <c r="D55">
-        <v>13026385.70399081</v>
+        <v>-2875026.217087355</v>
       </c>
       <c r="E55">
-        <v>57116294.4809095</v>
+        <v>12616019.18299872</v>
       </c>
     </row>
     <row r="56">
       <c r="A56">
-        <v>30445382.67762591</v>
+        <v>4864023.888150316</v>
       </c>
       <c r="B56">
-        <v>15919279.49042359</v>
+        <v>-203572.6728596194</v>
       </c>
       <c r="C56">
-        <v>44971485.86482823</v>
+        <v>9931620.449160252</v>
       </c>
       <c r="D56">
-        <v>8229624.960120168</v>
+        <v>-2886196.247188311</v>
       </c>
       <c r="E56">
-        <v>52661140.39513165</v>
+        <v>12614244.02348894</v>
       </c>
     </row>
     <row r="57">
       <c r="A57">
-        <v>29775507.30107208</v>
+        <v>4857551.854435546</v>
       </c>
       <c r="B57">
-        <v>15137476.05911671</v>
+        <v>-213114.1604396217</v>
       </c>
       <c r="C57">
-        <v>44413538.54302744</v>
+        <v>9928217.869310714</v>
       </c>
       <c r="D57">
-        <v>7388570.395718075</v>
+        <v>-2897362.605493529</v>
       </c>
       <c r="E57">
-        <v>52162444.20642608</v>
+        <v>12612466.31436462</v>
       </c>
     </row>
     <row r="58">
       <c r="A58">
-        <v>29694259.82438492</v>
+        <v>4851080.28169843</v>
       </c>
       <c r="B58">
-        <v>14944054.97121367</v>
+        <v>-222653.1876889076</v>
       </c>
       <c r="C58">
-        <v>44444464.67755617</v>
+        <v>9924813.751085768</v>
       </c>
       <c r="D58">
-        <v>7135768.184980467</v>
+        <v>-2908525.445074452</v>
       </c>
       <c r="E58">
-        <v>52252751.46378937</v>
+        <v>12610686.00847131</v>
       </c>
     </row>
     <row r="59">
       <c r="A59">
-        <v>26108126.72107012</v>
+        <v>4844609.087688737</v>
       </c>
       <c r="B59">
-        <v>11245502.91062521</v>
+        <v>-232189.8658816554</v>
       </c>
       <c r="C59">
-        <v>40970750.53151503</v>
+        <v>9921408.041259129</v>
       </c>
       <c r="D59">
-        <v>3377705.123199832</v>
+        <v>-2919684.892569608</v>
       </c>
       <c r="E59">
-        <v>48838548.3189404</v>
+        <v>12608903.06794708</v>
       </c>
     </row>
     <row r="60">
       <c r="A60">
-        <v>28480925.89425695</v>
+        <v>4838138.204831783</v>
       </c>
       <c r="B60">
-        <v>13505637.9966334</v>
+        <v>-241724.2870140662</v>
       </c>
       <c r="C60">
-        <v>43456213.7918805</v>
+        <v>9918000.696677633</v>
       </c>
       <c r="D60">
-        <v>5578199.444082581</v>
+        <v>-2930841.052903167</v>
       </c>
       <c r="E60">
-        <v>51383652.34443132</v>
+        <v>12607117.46256673</v>
       </c>
     </row>
     <row r="61">
       <c r="A61">
-        <v>28301578.47594769</v>
+        <v>4831667.577609943</v>
       </c>
       <c r="B61">
-        <v>13213381.58289172</v>
+        <v>-251256.5272448752</v>
       </c>
       <c r="C61">
-        <v>43389775.36900366</v>
+        <v>9914591.682464762</v>
       </c>
       <c r="D61">
-        <v>5226172.618617278</v>
+        <v>-2941994.013160612</v>
       </c>
       <c r="E61">
-        <v>51376984.33327811</v>
+        <v>12605329.1683805</v>
       </c>
     </row>
     <row r="62">
       <c r="A62">
-        <v>28810846.52608022</v>
+        <v>4825197.160411362</v>
       </c>
       <c r="B62">
-        <v>13357941.08006789</v>
+        <v>-260786.6497215023</v>
       </c>
       <c r="C62">
-        <v>44263751.97209255</v>
+        <v>9911180.970544226</v>
       </c>
       <c r="D62">
-        <v>5177667.070038293</v>
+        <v>-2953143.845772124</v>
       </c>
       <c r="E62">
-        <v>52444025.98212215</v>
+        <v>12603538.16659485</v>
       </c>
     </row>
     <row r="63">
       <c r="A63">
-        <v>28752124.33562509</v>
+        <v>4818726.915762503</v>
       </c>
       <c r="B63">
-        <v>13187653.40987601</v>
+        <v>-270314.70690154</v>
       </c>
       <c r="C63">
-        <v>44316595.26137418</v>
+        <v>9907768.538426545</v>
       </c>
       <c r="D63">
-        <v>4948320.202370871</v>
+        <v>-2964290.61112738</v>
       </c>
       <c r="E63">
-        <v>52555928.46887931</v>
+        <v>12601744.44265239</v>
       </c>
     </row>
     <row r="64">
       <c r="A64">
-        <v>30229364.26513198</v>
+        <v>4812256.812876074</v>
       </c>
       <c r="B64">
-        <v>14553061.20922145</v>
+        <v>-279840.7424597153</v>
       </c>
       <c r="C64">
-        <v>45905667.3210425</v>
+        <v>9904354.368211862</v>
       </c>
       <c r="D64">
-        <v>6254527.648032539</v>
+        <v>-2975434.359723303</v>
       </c>
       <c r="E64">
-        <v>54204200.88223141</v>
+        <v>12599947.98547545</v>
       </c>
     </row>
     <row r="65">
       <c r="A65">
-        <v>31129775.78558975</v>
+        <v>4805786.82645802</v>
       </c>
       <c r="B65">
-        <v>15341374.57946476</v>
+        <v>-289364.7928543547</v>
       </c>
       <c r="C65">
-        <v>46918176.99171473</v>
+        <v>9900938.445770394</v>
       </c>
       <c r="D65">
-        <v>6983499.842082448</v>
+        <v>-2986575.133928226</v>
       </c>
       <c r="E65">
-        <v>55276051.72909705</v>
+        <v>12598148.78684427</v>
       </c>
     </row>
     <row r="66">
       <c r="A66">
-        <v>32538383.34673976</v>
+        <v>4799316.935727403</v>
       </c>
       <c r="B66">
-        <v>16637618.59631553</v>
+        <v>-298886.8886141386</v>
       </c>
       <c r="C66">
-        <v>48439148.09716399</v>
+        <v>9897520.760068944</v>
       </c>
       <c r="D66">
-        <v>8220262.191597763</v>
+        <v>-2997712.969430973</v>
       </c>
       <c r="E66">
-        <v>56856504.50188176</v>
+        <v>12596346.84088578</v>
       </c>
     </row>
     <row r="67">
       <c r="A67">
-        <v>37031089.64259089</v>
+        <v>4792847.123611126</v>
       </c>
       <c r="B67">
-        <v>21017696.57539766</v>
+        <v>-308407.0553951217</v>
       </c>
       <c r="C67">
-        <v>53044482.70978412</v>
+        <v>9894101.302617375</v>
       </c>
       <c r="D67">
-        <v>12540718.3412655</v>
+        <v>-3008847.896431143</v>
       </c>
       <c r="E67">
-        <v>61521460.94391628</v>
+        <v>12594542.1436534</v>
       </c>
     </row>
     <row r="68">
       <c r="A68">
-        <v>32405132.22776665</v>
+        <v>4786377.376082379</v>
       </c>
       <c r="B68">
-        <v>16278846.68864599</v>
+        <v>-317925.3148490144</v>
       </c>
       <c r="C68">
-        <v>48531417.76688731</v>
+        <v>9890680.067013774</v>
       </c>
       <c r="D68">
-        <v>7742106.789805383</v>
+        <v>-3019979.940616824</v>
       </c>
       <c r="E68">
-        <v>57068157.66572791</v>
+        <v>12592734.69278158</v>
       </c>
     </row>
     <row r="69">
       <c r="A69">
-        <v>31735256.85121281</v>
+        <v>4779907.681617089</v>
       </c>
       <c r="B69">
-        <v>15495815.29806263</v>
+        <v>-327441.6853364399</v>
       </c>
       <c r="C69">
-        <v>47974698.40436299</v>
+        <v>9887257.048570618</v>
       </c>
       <c r="D69">
-        <v>6899174.223751936</v>
+        <v>-3031109.123967689</v>
       </c>
       <c r="E69">
-        <v>56571339.47867368</v>
+        <v>12590924.48720187</v>
       </c>
     </row>
     <row r="70">
       <c r="A70">
-        <v>31654009.37452566</v>
+        <v>4773438.030747375</v>
       </c>
       <c r="B70">
-        <v>15301148.87409313</v>
+        <v>-336956.1825128421</v>
       </c>
       <c r="C70">
-        <v>48006869.87495819</v>
+        <v>9883832.244007591</v>
       </c>
       <c r="D70">
-        <v>6644467.435856044</v>
+        <v>-3042235.465414682</v>
       </c>
       <c r="E70">
-        <v>56663551.31319527</v>
+        <v>12589111.52690943</v>
       </c>
     </row>
     <row r="71">
       <c r="A71">
-        <v>28067876.27121086</v>
+        <v>4766968.415694669</v>
       </c>
       <c r="B71">
-        <v>11601334.49493261</v>
+        <v>-346468.8198097926</v>
       </c>
       <c r="C71">
-        <v>44534418.0474891</v>
+        <v>9880405.65119913</v>
       </c>
       <c r="D71">
-        <v>2884473.824416097</v>
+        <v>-3053358.981381892</v>
       </c>
       <c r="E71">
-        <v>53251278.71800561</v>
+        <v>12587295.81277123</v>
       </c>
     </row>
     <row r="72">
       <c r="A72">
-        <v>30440675.44439769</v>
+        <v>4760498.830068298</v>
       </c>
       <c r="B72">
-        <v>13860190.66428649</v>
+        <v>-355979.6088303644</v>
       </c>
       <c r="C72">
-        <v>47021160.22450889</v>
+        <v>9876977.26896696</v>
       </c>
       <c r="D72">
-        <v>5083012.211063288</v>
+        <v>-3064479.686231674</v>
       </c>
       <c r="E72">
-        <v>55798338.67773209</v>
+        <v>12585477.34636827</v>
       </c>
     </row>
     <row r="73">
       <c r="A73">
-        <v>30261328.02608842</v>
+        <v>4754029.26861785</v>
       </c>
       <c r="B73">
-        <v>13566639.1106656</v>
+        <v>-365488.5596739212</v>
       </c>
       <c r="C73">
-        <v>46956016.94151124</v>
+        <v>9873547.09690962</v>
       </c>
       <c r="D73">
-        <v>4729004.640081048</v>
+        <v>-3075597.592630266</v>
       </c>
       <c r="E73">
-        <v>55793651.4120958</v>
+        <v>12583656.12986597</v>
       </c>
     </row>
     <row r="74">
       <c r="A74">
-        <v>30770596.07622096</v>
+        <v>4747559.72702972</v>
       </c>
       <c r="B74">
-        <v>13724279.5556984</v>
+        <v>-374995.6812029192</v>
       </c>
       <c r="C74">
-        <v>47816912.59674352</v>
+        <v>9870115.135262359</v>
       </c>
       <c r="D74">
-        <v>4700504.674868289</v>
+        <v>-3086712.711848144</v>
       </c>
       <c r="E74">
-        <v>56840687.47757363</v>
+        <v>12581832.16590758</v>
       </c>
     </row>
     <row r="75">
       <c r="A75">
-        <v>30711873.88576583</v>
+        <v>4741090.201759961</v>
       </c>
       <c r="B75">
-        <v>13552418.29024748</v>
+        <v>-384500.9812620878</v>
       </c>
       <c r="C75">
-        <v>47871329.48128419</v>
+        <v>9866681.384782009</v>
       </c>
       <c r="D75">
-        <v>4468751.200930093</v>
+        <v>-3097825.054006733</v>
       </c>
       <c r="E75">
-        <v>56954996.57060157</v>
+        <v>12580005.45752665</v>
       </c>
     </row>
     <row r="76">
       <c r="A76">
-        <v>32189113.81527271</v>
+        <v>4734620.689896958</v>
       </c>
       <c r="B76">
-        <v>14916242.37584159</v>
+        <v>-394004.4668584643</v>
       </c>
       <c r="C76">
-        <v>49461985.25470384</v>
+        <v>9863245.846652381</v>
       </c>
       <c r="D76">
-        <v>5772536.565422427</v>
+        <v>-3108934.628281057</v>
       </c>
       <c r="E76">
-        <v>58605691.06512299</v>
+        <v>12578176.00807497</v>
       </c>
     </row>
     <row r="77">
       <c r="A77">
-        <v>33089525.33573049</v>
+        <v>4728151.189048601</v>
       </c>
       <c r="B77">
-        <v>15702962.12677871</v>
+        <v>-403506.1443093223</v>
       </c>
       <c r="C77">
-        <v>50476088.54468226</v>
+        <v>9859808.522406526</v>
       </c>
       <c r="D77">
-        <v>6499071.529064152</v>
+        <v>-3120041.443066244</v>
       </c>
       <c r="E77">
-        <v>59679979.14239682</v>
+        <v>12576343.82116345</v>
       </c>
     </row>
     <row r="78">
       <c r="A78">
-        <v>34498132.8968805</v>
+        <v>4721681.697249597</v>
       </c>
       <c r="B78">
-        <v>16997602.82727306</v>
+        <v>-413006.0193636594</v>
       </c>
       <c r="C78">
-        <v>51998662.96648794</v>
+        <v>9856369.413862854</v>
       </c>
       <c r="D78">
-        <v>7733381.817812745</v>
+        <v>-3131145.506114266</v>
       </c>
       <c r="E78">
-        <v>61262883.97594826</v>
+        <v>12574508.90061346</v>
       </c>
     </row>
     <row r="79">
       <c r="A79">
-        <v>38990839.19273163</v>
+        <v>4715212.212885307</v>
       </c>
       <c r="B79">
-        <v>21376067.9971248</v>
+        <v>-422504.0973020326</v>
       </c>
       <c r="C79">
-        <v>56605610.38833845</v>
+        <v>9852928.523072647</v>
       </c>
       <c r="D79">
-        <v>12051371.38861587</v>
+        <v>-3142246.824646298</v>
       </c>
       <c r="E79">
-        <v>65930306.99684739</v>
+        <v>12572671.25041691</v>
       </c>
     </row>
     <row r="80">
       <c r="A80">
-        <v>34364881.77790739</v>
+        <v>4708742.73462919</v>
       </c>
       <c r="B80">
-        <v>16635596.0082183</v>
+        <v>-432000.3830185467</v>
       </c>
       <c r="C80">
-        <v>52094167.54759647</v>
+        <v>9849485.852276925</v>
       </c>
       <c r="D80">
-        <v>7250279.045989648</v>
+        <v>-3153345.405444998</v>
       </c>
       <c r="E80">
-        <v>61479484.50982513</v>
+        <v>12570830.87470338</v>
       </c>
     </row>
     <row r="81">
       <c r="A81">
-        <v>33695006.40135355</v>
+        <v>4702273.261391388</v>
       </c>
       <c r="B81">
-        <v>15850933.41837734</v>
+        <v>-441494.8810882382</v>
       </c>
       <c r="C81">
-        <v>51539079.38432977</v>
+        <v>9846041.403871015</v>
       </c>
       <c r="D81">
-        <v>6404851.775952011</v>
+        <v>-3164441.254930348</v>
       </c>
       <c r="E81">
-        <v>60985161.0267551</v>
+        <v>12568987.77771312</v>
       </c>
     </row>
     <row r="82">
       <c r="A82">
-        <v>33613758.9246664</v>
+        <v>4695803.792276507</v>
       </c>
       <c r="B82">
-        <v>15654626.88983762</v>
+        <v>-450987.5958224116</v>
       </c>
       <c r="C82">
-        <v>51572890.95949517</v>
+        <v>9842595.180375427</v>
       </c>
       <c r="D82">
-        <v>6147636.664571576</v>
+        <v>-3175534.379221925</v>
       </c>
       <c r="E82">
-        <v>61079881.18476122</v>
+        <v>12567141.96377494</v>
       </c>
     </row>
     <row r="83">
       <c r="A83">
-        <v>30027625.8213516</v>
+        <v>4689334.326548913</v>
       </c>
       <c r="B83">
-        <v>11953163.68864673</v>
+        <v>-460478.5313141132</v>
       </c>
       <c r="C83">
-        <v>48102087.95405646</v>
+        <v>9839147.184411939</v>
       </c>
       <c r="D83">
-        <v>2385121.39744227</v>
+        <v>-3186624.784190079</v>
       </c>
       <c r="E83">
-        <v>57670130.24526092</v>
+        <v>12565293.43728791</v>
       </c>
     </row>
     <row r="84">
       <c r="A84">
-        <v>32400424.99453843</v>
+        <v>4682864.863604227</v>
       </c>
       <c r="B84">
-        <v>14210362.50251612</v>
+        <v>-469967.6914754966</v>
       </c>
       <c r="C84">
-        <v>50590487.48656073</v>
+        <v>9835697.41868395</v>
       </c>
       <c r="D84">
-        <v>4581125.07760828</v>
+        <v>-3197712.475497997</v>
       </c>
       <c r="E84">
-        <v>60219724.91146857</v>
+        <v>12563442.20270645</v>
       </c>
     </row>
     <row r="85">
       <c r="A85">
-        <v>32221077.57622917</v>
+        <v>4676395.402945904</v>
       </c>
       <c r="B85">
-        <v>13915145.2402053</v>
+        <v>-479455.0800685175</v>
       </c>
       <c r="C85">
-        <v>50527009.91225303</v>
+        <v>9832245.885960326</v>
       </c>
       <c r="D85">
-        <v>4224570.025019534</v>
+        <v>-3208797.458636238</v>
       </c>
       <c r="E85">
-        <v>60217585.1274388</v>
+        <v>12561588.26452805</v>
       </c>
     </row>
     <row r="86">
       <c r="A86">
-        <v>32730345.6263617</v>
+        <v>4669925.944166001</v>
       </c>
       <c r="B86">
-        <v>14083093.99140638</v>
+        <v>-488940.7007301459</v>
       </c>
       <c r="C86">
-        <v>51377597.26131702</v>
+        <v>9828792.589062147</v>
       </c>
       <c r="D86">
-        <v>4211835.253634833</v>
+        <v>-3219879.738951117</v>
       </c>
       <c r="E86">
-        <v>61248855.99908856</v>
+        <v>12559731.62728312</v>
       </c>
     </row>
     <row r="87">
       <c r="A87">
-        <v>32671623.43590657</v>
+        <v>4663456.486929359</v>
       </c>
       <c r="B87">
-        <v>13909362.32186329</v>
+        <v>-498424.5569931073</v>
       </c>
       <c r="C87">
-        <v>51433884.54994986</v>
+        <v>9825337.530851826</v>
       </c>
       <c r="D87">
-        <v>3977221.243487433</v>
+        <v>-3230959.321668045</v>
       </c>
       <c r="E87">
-        <v>61366025.62832571</v>
+        <v>12557872.29552676</v>
       </c>
     </row>
     <row r="88">
       <c r="A88">
-        <v>34148863.36541345</v>
+        <v>4656987.030960621</v>
       </c>
       <c r="B88">
-        <v>15271311.59400481</v>
+        <v>-507906.6523029003</v>
       </c>
       <c r="C88">
-        <v>53026415.13682209</v>
+        <v>9821880.714224143</v>
       </c>
       <c r="D88">
-        <v>5278139.328235745</v>
+        <v>-3242036.211910695</v>
       </c>
       <c r="E88">
-        <v>63019587.40259115</v>
+        <v>12556010.27383194</v>
       </c>
     </row>
     <row r="89">
       <c r="A89">
-        <v>35049274.88587122</v>
+        <v>4650517.576033561</v>
       </c>
       <c r="B89">
-        <v>16056152.21305224</v>
+        <v>-517386.990031803</v>
       </c>
       <c r="C89">
-        <v>54042397.55869021</v>
+        <v>9818422.142098924</v>
       </c>
       <c r="D89">
-        <v>6001800.407653831</v>
+        <v>-3253110.414716764</v>
       </c>
       <c r="E89">
-        <v>64096749.36408862</v>
+        <v>12554145.56678389</v>
       </c>
     </row>
     <row r="90">
       <c r="A90">
-        <v>36457882.44702124</v>
+        <v>4644048.121962314</v>
       </c>
       <c r="B90">
-        <v>17348909.55273569</v>
+        <v>-526865.5734903729</v>
       </c>
       <c r="C90">
-        <v>55566855.34130678</v>
+        <v>9814961.817415003</v>
       </c>
       <c r="D90">
-        <v>7233230.344601929</v>
+        <v>-3264181.935050922</v>
       </c>
       <c r="E90">
-        <v>65682534.54944055</v>
+        <v>12552278.17897555</v>
       </c>
     </row>
     <row r="91">
       <c r="A91">
-        <v>40950588.74287237</v>
+        <v>4637578.668594183</v>
       </c>
       <c r="B91">
-        <v>21725487.2209826</v>
+        <v>-536342.4059369033</v>
       </c>
       <c r="C91">
-        <v>60175690.26476213</v>
+        <v>9811499.743125271</v>
       </c>
       <c r="D91">
-        <v>11548333.23080671</v>
+        <v>-3275250.777815467</v>
       </c>
       <c r="E91">
-        <v>70352844.25493802</v>
+        <v>12550408.11500383</v>
       </c>
     </row>
     <row r="92">
       <c r="A92">
-        <v>36324631.32804813</v>
+        <v>4631109.215803714</v>
       </c>
       <c r="B92">
-        <v>16983123.67643462</v>
+        <v>-545817.4905851986</v>
       </c>
       <c r="C92">
-        <v>55666138.97966163</v>
+        <v>9808035.922192628</v>
       </c>
       <c r="D92">
-        <v>6744348.003468134</v>
+        <v>-3286316.947859075</v>
       </c>
       <c r="E92">
-        <v>65904914.65262812</v>
+        <v>12548535.3794665</v>
       </c>
     </row>
     <row r="93">
       <c r="A93">
-        <v>35654755.95149429</v>
+        <v>4624639.763487838</v>
       </c>
       <c r="B93">
-        <v>16196565.56232154</v>
+        <v>-555290.8306109691</v>
       </c>
       <c r="C93">
-        <v>55112946.34066704</v>
+        <v>9804570.357586645</v>
       </c>
       <c r="D93">
-        <v>5896021.779221352</v>
+        <v>-3297380.449984014</v>
       </c>
       <c r="E93">
-        <v>65413490.12376723</v>
+        <v>12546659.97695969</v>
       </c>
     </row>
     <row r="94">
       <c r="A94">
-        <v>35573508.47480714</v>
+        <v>4618170.311561873</v>
       </c>
       <c r="B94">
-        <v>15998359.62495244</v>
+        <v>-564762.4291570866</v>
       </c>
       <c r="C94">
-        <v>55148657.32466184</v>
+        <v>9801103.052280832</v>
       </c>
       <c r="D94">
-        <v>5635901.772714097</v>
+        <v>-3308441.288952067</v>
       </c>
       <c r="E94">
-        <v>65511115.17690018</v>
+        <v>12544781.91207581</v>
       </c>
     </row>
     <row r="95">
       <c r="A95">
-        <v>31987375.37149233</v>
+        <v>4611700.859956253</v>
       </c>
       <c r="B95">
-        <v>12294993.21313394</v>
+        <v>-574232.2893379061</v>
       </c>
       <c r="C95">
-        <v>51679757.52985073</v>
+        <v>9797634.009250414</v>
       </c>
       <c r="D95">
-        <v>1870475.796109352</v>
+        <v>-3319499.469489399</v>
       </c>
       <c r="E95">
-        <v>62104274.94687532</v>
+        <v>12542901.18940191</v>
       </c>
     </row>
     <row r="96">
       <c r="A96">
-        <v>34360174.54467917</v>
+        <v>4605231.408613818</v>
       </c>
       <c r="B96">
-        <v>14550285.09604079</v>
+        <v>-583700.4142428366</v>
       </c>
       <c r="C96">
-        <v>54170063.99331754</v>
+        <v>9794163.231470473</v>
       </c>
       <c r="D96">
-        <v>4063563.07703862</v>
+        <v>-3330554.996290597</v>
       </c>
       <c r="E96">
-        <v>64656786.01231971</v>
+        <v>12541017.81351823</v>
       </c>
     </row>
     <row r="97">
       <c r="A97">
-        <v>34180827.1263699</v>
+        <v>4598761.957487607</v>
       </c>
       <c r="B97">
-        <v>14253157.26261808</v>
+        <v>-593166.8069392582</v>
       </c>
       <c r="C97">
-        <v>54108496.99012172</v>
+        <v>9790690.721914474</v>
       </c>
       <c r="D97">
-        <v>3704086.05808514</v>
+        <v>-3341607.874021955</v>
       </c>
       <c r="E97">
-        <v>64657568.19465466</v>
+        <v>12539131.78899717</v>
       </c>
     </row>
     <row r="98">
       <c r="A98">
-        <v>34690095.17650244</v>
+        <v>4592292.506539043</v>
       </c>
       <c r="B98">
-        <v>14429386.27548076</v>
+        <v>-602631.4704749398</v>
       </c>
       <c r="C98">
-        <v>54950804.07752412</v>
+        <v>9787216.483553026</v>
       </c>
       <c r="D98">
-        <v>3704014.854110148</v>
+        <v>-3352658.107324209</v>
       </c>
       <c r="E98">
-        <v>65676175.49889472</v>
+        <v>12537243.1204023</v>
       </c>
     </row>
     <row r="99">
       <c r="A99">
-        <v>34631372.98604731</v>
+        <v>4585823.055736428</v>
       </c>
       <c r="B99">
-        <v>14253588.24090284</v>
+        <v>-612094.4078800296</v>
       </c>
       <c r="C99">
-        <v>55009157.73119178</v>
+        <v>9783740.519352887</v>
       </c>
       <c r="D99">
-        <v>3466240.611354046</v>
+        <v>-3363705.700814794</v>
       </c>
       <c r="E99">
-        <v>65796505.36074058</v>
+        <v>12535351.81228765</v>
       </c>
     </row>
     <row r="100">
       <c r="A100">
-        <v>36108612.91555419</v>
+        <v>4579353.605053721</v>
       </c>
       <c r="B100">
-        <v>15613470.1873838</v>
+        <v>-621555.6221686918</v>
       </c>
       <c r="C100">
-        <v>56603755.64372458</v>
+        <v>9780262.832276134</v>
       </c>
       <c r="D100">
-        <v>4763996.994343374</v>
+        <v>-3374750.659089687</v>
       </c>
       <c r="E100">
-        <v>67453228.83676501</v>
+        <v>12533457.86919713</v>
       </c>
     </row>
     <row r="101">
       <c r="A101">
-        <v>37009024.43601196</v>
+        <v>4572884.154469527</v>
       </c>
       <c r="B101">
-        <v>16396242.54774599</v>
+        <v>-631015.1163404556</v>
       </c>
       <c r="C101">
-        <v>57621806.32427794</v>
+        <v>9776783.425279509</v>
       </c>
       <c r="D101">
-        <v>5484494.945064366</v>
+        <v>-3385792.986724952</v>
       </c>
       <c r="E101">
-        <v>68533553.92695956</v>
+        <v>12531561.29566401</v>
       </c>
     </row>
     <row r="102">
       <c r="A102">
-        <v>38417631.99716198</v>
+        <v>4566414.703966271</v>
       </c>
       <c r="B102">
-        <v>17686930.72319923</v>
+        <v>-640472.8933813414</v>
       </c>
       <c r="C102">
-        <v>59148333.27112472</v>
+        <v>9773302.301313885</v>
       </c>
       <c r="D102">
-        <v>6712760.368403841</v>
+        <v>-3396832.688278005</v>
       </c>
       <c r="E102">
-        <v>70122503.62592012</v>
+        <v>12529662.09621055</v>
       </c>
     </row>
     <row r="103">
       <c r="A103">
-        <v>42910338.2930131</v>
+        <v>4559945.25352951</v>
       </c>
       <c r="B103">
-        <v>22061438.34902019</v>
+        <v>-649928.956264779</v>
       </c>
       <c r="C103">
-        <v>63759238.23700602</v>
+        <v>9769819.463323798</v>
       </c>
       <c r="D103">
-        <v>11024697.39791552</v>
+        <v>-3407869.768288671</v>
       </c>
       <c r="E103">
-        <v>74795979.18811068</v>
+        <v>12527760.27534769</v>
       </c>
     </row>
     <row r="104">
       <c r="A104">
-        <v>38284380.87818886</v>
+        <v>4553475.803147377</v>
       </c>
       <c r="B104">
-        <v>17317003.91106074</v>
+        <v>-659383.3079523714</v>
       </c>
       <c r="C104">
-        <v>59251757.84531699</v>
+        <v>9766334.914247125</v>
       </c>
       <c r="D104">
-        <v>6217545.012413796</v>
+        <v>-3418904.231280048</v>
       </c>
       <c r="E104">
-        <v>70351216.74396393</v>
+        <v>12525855.8375748</v>
       </c>
     </row>
     <row r="105">
       <c r="A105">
-        <v>37614505.50163503</v>
+        <v>4547006.35281013</v>
       </c>
       <c r="B105">
-        <v>16528374.07961381</v>
+        <v>-668835.95139453</v>
       </c>
       <c r="C105">
-        <v>58700636.92365626</v>
+        <v>9762848.657014789</v>
       </c>
       <c r="D105">
-        <v>5366050.369923327</v>
+        <v>-3429936.081759243</v>
       </c>
       <c r="E105">
-        <v>69862960.63334674</v>
+        <v>12523948.7873795</v>
       </c>
     </row>
     <row r="106">
       <c r="A106">
-        <v>37533258.02494787</v>
+        <v>4540536.902509756</v>
       </c>
       <c r="B106">
-        <v>16328095.62789696</v>
+        <v>-678286.8895310014</v>
       </c>
       <c r="C106">
-        <v>58738420.42199879</v>
+        <v>9759360.694550514</v>
       </c>
       <c r="D106">
-        <v>5102760.726244833</v>
+        <v>-3440965.32421797</v>
       </c>
       <c r="E106">
-        <v>69963755.32365091</v>
+        <v>12522039.12923748</v>
       </c>
     </row>
     <row r="107">
       <c r="A107">
-        <v>33947124.92163307</v>
+        <v>4534067.452239679</v>
       </c>
       <c r="B107">
-        <v>12622655.93146365</v>
+        <v>-687736.1252913075</v>
       </c>
       <c r="C107">
-        <v>55271593.91180249</v>
+        <v>9755871.029770665</v>
       </c>
       <c r="D107">
-        <v>1334163.93444702</v>
+        <v>-3451991.963133065</v>
       </c>
       <c r="E107">
-        <v>66560085.90881912</v>
+        <v>12520126.86761242</v>
       </c>
     </row>
     <row r="108">
       <c r="A108">
-        <v>36319924.0948199</v>
+        <v>4527598.001994492</v>
       </c>
       <c r="B108">
-        <v>14875873.78606705</v>
+        <v>-697183.6615951089</v>
       </c>
       <c r="C108">
-        <v>57763974.40357275</v>
+        <v>9752379.665584095</v>
       </c>
       <c r="D108">
-        <v>3524079.262809604</v>
+        <v>-3463016.002966899</v>
       </c>
       <c r="E108">
-        <v>69115768.9268302</v>
+        <v>12518212.00695588</v>
       </c>
     </row>
     <row r="109">
       <c r="A109">
-        <v>36140576.67651064</v>
+        <v>4521128.551769754</v>
       </c>
       <c r="B109">
-        <v>14576671.20705617</v>
+        <v>-706629.5013525132</v>
       </c>
       <c r="C109">
-        <v>57704482.14596511</v>
+        <v>9748886.604892021</v>
       </c>
       <c r="D109">
-        <v>3161429.194297094</v>
+        <v>-3474037.44816775</v>
       </c>
       <c r="E109">
-        <v>69119724.15872419</v>
+        <v>12516294.55170726</v>
       </c>
     </row>
     <row r="110">
       <c r="A110">
-        <v>36649844.72664318</v>
+        <v>4514659.101561816</v>
       </c>
       <c r="B110">
-        <v>14759648.73821818</v>
+        <v>-716073.6474643322</v>
       </c>
       <c r="C110">
-        <v>58540040.71506817</v>
+        <v>9745391.850587964</v>
       </c>
       <c r="D110">
-        <v>3171678.958413698</v>
+        <v>-3485056.303170092</v>
       </c>
       <c r="E110">
-        <v>70128010.49487266</v>
+        <v>12514374.50629373</v>
       </c>
     </row>
     <row r="111">
       <c r="A111">
-        <v>36591122.53618805</v>
+        <v>4508189.651367681</v>
       </c>
       <c r="B111">
-        <v>14581654.07490294</v>
+        <v>-725516.1028222991</v>
       </c>
       <c r="C111">
-        <v>58600590.99747317</v>
+        <v>9741895.405557662</v>
       </c>
       <c r="D111">
-        <v>2930545.261907682</v>
+        <v>-3496072.572394866</v>
       </c>
       <c r="E111">
-        <v>70251699.81046842</v>
+        <v>12512451.87513023</v>
       </c>
     </row>
     <row r="112">
       <c r="A112">
-        <v>38068362.46569493</v>
+        <v>4501720.201184886</v>
       </c>
       <c r="B112">
-        <v>15939340.57021268</v>
+        <v>-734956.8703092532</v>
       </c>
       <c r="C112">
-        <v>60197384.36117718</v>
+        <v>9738397.272679023</v>
       </c>
       <c r="D112">
-        <v>4224943.992079057</v>
+        <v>-3507086.260249686</v>
       </c>
       <c r="E112">
-        <v>71911780.93931079</v>
+        <v>12510526.66261946</v>
       </c>
     </row>
     <row r="113">
       <c r="A113">
-        <v>38968773.9861527</v>
+        <v>4495250.751011407</v>
       </c>
       <c r="B113">
-        <v>16719918.65078024</v>
+        <v>-744395.9527992923</v>
       </c>
       <c r="C113">
-        <v>61217629.32152516</v>
+        <v>9734897.454822106</v>
       </c>
       <c r="D113">
-        <v>4942086.081448004</v>
+        <v>-3518097.37112904</v>
       </c>
       <c r="E113">
-        <v>72995461.8908574</v>
+        <v>12508598.87315185</v>
       </c>
     </row>
     <row r="114">
       <c r="A114">
-        <v>40377381.54730272</v>
+        <v>4488781.30084558</v>
       </c>
       <c r="B114">
-        <v>18008413.71205184</v>
+        <v>-753833.3531579208</v>
       </c>
       <c r="C114">
-        <v>62746349.38255359</v>
+        <v>9731395.954849081</v>
       </c>
       <c r="D114">
-        <v>6166997.426086649</v>
+        <v>-3529105.909414452</v>
       </c>
       <c r="E114">
-        <v>74587765.66851878</v>
+        <v>12506668.51110561</v>
       </c>
     </row>
     <row r="115">
       <c r="A115">
-        <v>44870087.84315384</v>
+        <v>4482311.850686044</v>
       </c>
       <c r="B115">
-        <v>22380729.3839494</v>
+        <v>-763269.074242142</v>
       </c>
       <c r="C115">
-        <v>67359446.30235829</v>
+        <v>9727892.775614228</v>
       </c>
       <c r="D115">
-        <v>10475582.15135936</v>
+        <v>-3540111.879474614</v>
       </c>
       <c r="E115">
-        <v>79264593.53494832</v>
+        <v>12504735.5808467</v>
       </c>
     </row>
     <row r="116">
       <c r="A116">
-        <v>40244130.42832959</v>
+        <v>4475842.400531674</v>
       </c>
       <c r="B116">
-        <v>17634104.14736243</v>
+        <v>-772703.118900585</v>
       </c>
       <c r="C116">
-        <v>62854156.70929676</v>
+        <v>9724387.919963934</v>
       </c>
       <c r="D116">
-        <v>5665079.228491247</v>
+        <v>-3551115.285665532</v>
       </c>
       <c r="E116">
-        <v>74823181.62816794</v>
+        <v>12502800.08672888</v>
       </c>
     </row>
     <row r="117">
       <c r="A117">
-        <v>39574255.05177577</v>
+        <v>4469372.950381549</v>
       </c>
       <c r="B117">
-        <v>16843284.667998</v>
+        <v>-782135.4899735777</v>
       </c>
       <c r="C117">
-        <v>62305225.43555354</v>
+        <v>9720881.390736677</v>
       </c>
       <c r="D117">
-        <v>4810235.808493495</v>
+        <v>-3562116.132330625</v>
       </c>
       <c r="E117">
-        <v>74338274.29505804</v>
+        <v>12500862.03309372</v>
       </c>
     </row>
     <row r="118">
       <c r="A118">
-        <v>39493007.57508861</v>
+        <v>4462903.500234911</v>
       </c>
       <c r="B118">
-        <v>16640817.7148488</v>
+        <v>-791566.1902932301</v>
       </c>
       <c r="C118">
-        <v>62345197.43532842</v>
+        <v>9717373.190763053</v>
       </c>
       <c r="D118">
-        <v>4543599.140705437</v>
+        <v>-3573114.423800831</v>
       </c>
       <c r="E118">
-        <v>74442416.00947179</v>
+        <v>12498921.42427065</v>
       </c>
     </row>
     <row r="119">
       <c r="A119">
-        <v>35906874.4717738</v>
+        <v>4456434.050091138</v>
       </c>
       <c r="B119">
-        <v>12933190.65958972</v>
+        <v>-800995.2226835014</v>
       </c>
       <c r="C119">
-        <v>58880558.28395788</v>
+        <v>9713863.322865777</v>
       </c>
       <c r="D119">
-        <v>771657.072264038</v>
+        <v>-3584110.164394693</v>
       </c>
       <c r="E119">
-        <v>71042091.87128356</v>
+        <v>12496978.26457697</v>
       </c>
     </row>
     <row r="120">
       <c r="A120">
-        <v>38279673.64496064</v>
+        <v>4449964.599949719</v>
       </c>
       <c r="B120">
-        <v>15184222.29442725</v>
+        <v>-810422.5899602659</v>
       </c>
       <c r="C120">
-        <v>61375124.99549404</v>
+        <v>9710351.789859705</v>
       </c>
       <c r="D120">
-        <v>2958228.8660248</v>
+        <v>-3595103.358418449</v>
       </c>
       <c r="E120">
-        <v>73601118.42389649</v>
+        <v>12495032.55831789</v>
       </c>
     </row>
     <row r="121">
       <c r="A121">
-        <v>38100326.22665138</v>
+        <v>4443495.149810234</v>
       </c>
       <c r="B121">
-        <v>14882834.63148174</v>
+        <v>-819848.2949313698</v>
       </c>
       <c r="C121">
-        <v>61317817.82182102</v>
+        <v>9706838.594551839</v>
       </c>
       <c r="D121">
-        <v>2592237.000014477</v>
+        <v>-3606094.010166105</v>
       </c>
       <c r="E121">
-        <v>73608415.45328829</v>
+        <v>12493084.30978657</v>
       </c>
     </row>
     <row r="122">
       <c r="A122">
-        <v>38609594.27678391</v>
+        <v>4437025.699672338</v>
       </c>
       <c r="B122">
-        <v>15071373.48916848</v>
+        <v>-829272.340396679</v>
       </c>
       <c r="C122">
-        <v>62147815.06439933</v>
+        <v>9703323.739741355</v>
       </c>
       <c r="D122">
-        <v>2610992.079085074</v>
+        <v>-3617082.123919506</v>
       </c>
       <c r="E122">
-        <v>74608196.47448275</v>
+        <v>12491133.52326418</v>
       </c>
     </row>
     <row r="123">
       <c r="A123">
-        <v>38550872.08632879</v>
+        <v>4430556.249535747</v>
       </c>
       <c r="B123">
-        <v>14891096.2381058</v>
+        <v>-838694.7291481337</v>
       </c>
       <c r="C123">
-        <v>62210647.93455178</v>
+        <v>9699807.228219628</v>
       </c>
       <c r="D123">
-        <v>2366367.46586778</v>
+        <v>-3628067.703948406</v>
       </c>
       <c r="E123">
-        <v>74735376.70678979</v>
+        <v>12489180.2030199</v>
       </c>
     </row>
     <row r="124">
       <c r="A124">
-        <v>40028112.01583567</v>
+        <v>4424086.799400227</v>
       </c>
       <c r="B124">
-        <v>16246502.66574717</v>
+        <v>-848115.4639697904</v>
       </c>
       <c r="C124">
-        <v>63809721.36592416</v>
+        <v>9696289.062770244</v>
       </c>
       <c r="D124">
-        <v>3657279.133456208</v>
+        <v>-3639050.754510527</v>
       </c>
       <c r="E124">
-        <v>76398944.89821512</v>
+        <v>12487224.35331098</v>
       </c>
     </row>
     <row r="125">
       <c r="A125">
-        <v>40928523.53629343</v>
+        <v>4417617.34926559</v>
       </c>
       <c r="B125">
-        <v>17024803.17443135</v>
+        <v>-857534.5476378612</v>
       </c>
       <c r="C125">
-        <v>64832243.89815551</v>
+        <v>9692769.246169042</v>
       </c>
       <c r="D125">
-        <v>4370937.977215976</v>
+        <v>-3650031.279851618</v>
       </c>
       <c r="E125">
-        <v>77486109.09537089</v>
+        <v>12485265.9783828</v>
       </c>
     </row>
     <row r="126">
       <c r="A126">
-        <v>42337131.09744345</v>
+        <v>4411147.899131678</v>
       </c>
       <c r="B126">
-        <v>18311023.13595301</v>
+        <v>-866951.9829207594</v>
       </c>
       <c r="C126">
-        <v>66363239.0589339</v>
+        <v>9689247.781184115</v>
       </c>
       <c r="D126">
-        <v>5592369.857047252</v>
+        <v>-3661009.284205521</v>
       </c>
       <c r="E126">
-        <v>79081892.33783966</v>
+        <v>12483305.08246888</v>
       </c>
     </row>
     <row r="127">
       <c r="A127">
-        <v>46829837.39329458</v>
+        <v>4404678.44899836</v>
       </c>
       <c r="B127">
-        <v>22681066.15720708</v>
+        <v>-876367.7725791372</v>
       </c>
       <c r="C127">
-        <v>70978608.62938207</v>
+        <v>9685724.670575857</v>
       </c>
       <c r="D127">
-        <v>9897478.863097712</v>
+        <v>-3671984.771794219</v>
       </c>
       <c r="E127">
-        <v>83762195.92349145</v>
+        <v>12481341.66979094</v>
       </c>
     </row>
     <row r="128">
       <c r="A128">
-        <v>42203879.97847033</v>
+        <v>4398208.99886553</v>
       </c>
       <c r="B128">
-        <v>17932170.69666313</v>
+        <v>-885781.9193659201</v>
       </c>
       <c r="C128">
-        <v>66475589.26027754</v>
+        <v>9682199.91709698</v>
       </c>
       <c r="D128">
-        <v>5083503.932304084</v>
+        <v>-3682957.74682789</v>
       </c>
       <c r="E128">
-        <v>79324256.02463658</v>
+        <v>12479375.74455895</v>
       </c>
     </row>
     <row r="129">
       <c r="A129">
-        <v>41534004.60191651</v>
+        <v>4391739.548733102</v>
       </c>
       <c r="B129">
-        <v>17139083.39819832</v>
+        <v>-895194.4260263396</v>
       </c>
       <c r="C129">
-        <v>65928925.80563469</v>
+        <v>9678673.523492545</v>
       </c>
       <c r="D129">
-        <v>4225192.182291612</v>
+        <v>-3693928.213504961</v>
       </c>
       <c r="E129">
-        <v>78842817.0215414</v>
+        <v>12477407.31097117</v>
       </c>
     </row>
     <row r="130">
       <c r="A130">
-        <v>41452757.12522935</v>
+        <v>4385270.098601004</v>
       </c>
       <c r="B130">
-        <v>16934351.00954895</v>
+        <v>-904605.2952979729</v>
       </c>
       <c r="C130">
-        <v>65971163.24090976</v>
+        <v>9675145.492499981</v>
       </c>
       <c r="D130">
-        <v>3955090.829890765</v>
+        <v>-3704896.176012155</v>
       </c>
       <c r="E130">
-        <v>78950423.42056793</v>
+        <v>12475436.37321416</v>
       </c>
     </row>
     <row r="131">
       <c r="A131">
-        <v>37866624.02191454</v>
+        <v>4378800.648469176</v>
       </c>
       <c r="B131">
-        <v>13224460.88169086</v>
+        <v>-914014.5299107749</v>
       </c>
       <c r="C131">
-        <v>62508787.16213822</v>
+        <v>9671615.826849127</v>
       </c>
       <c r="D131">
-        <v>179687.6905820519</v>
+        <v>-3715861.638524545</v>
       </c>
       <c r="E131">
-        <v>75553560.35324703</v>
+        <v>12473462.9354629</v>
       </c>
     </row>
     <row r="132">
       <c r="A132">
-        <v>40239423.19510138</v>
+        <v>4372331.198337572</v>
       </c>
       <c r="B132">
-        <v>15473231.78667323</v>
+        <v>-923422.1325871078</v>
       </c>
       <c r="C132">
-        <v>65005614.60352953</v>
+        <v>9668084.529262252</v>
       </c>
       <c r="D132">
-        <v>2362801.996393055</v>
+        <v>-3726824.605205604</v>
       </c>
       <c r="E132">
-        <v>78116044.39380971</v>
+        <v>12471487.00188075</v>
       </c>
     </row>
     <row r="133">
       <c r="A133">
-        <v>40060075.77679212</v>
+        <v>4365861.74820615</v>
       </c>
       <c r="B133">
-        <v>15169585.71698559</v>
+        <v>-932828.106041776</v>
       </c>
       <c r="C133">
-        <v>64950565.83659864</v>
+        <v>9664551.602454076</v>
       </c>
       <c r="D133">
-        <v>1993356.195327736</v>
+        <v>-3737785.080207242</v>
       </c>
       <c r="E133">
-        <v>78126795.35825649</v>
+        <v>12469508.57661954</v>
       </c>
     </row>
     <row r="134">
       <c r="A134">
-        <v>40569343.82692464</v>
+        <v>4359392.298074877</v>
       </c>
       <c r="B134">
-        <v>15362745.95917206</v>
+        <v>-942232.4529820578</v>
       </c>
       <c r="C134">
-        <v>65775941.69467723</v>
+        <v>9661017.049131811</v>
       </c>
       <c r="D134">
-        <v>2019179.072075523</v>
+        <v>-3748743.067669866</v>
       </c>
       <c r="E134">
-        <v>79119508.58177376</v>
+        <v>12467527.66381962</v>
       </c>
     </row>
     <row r="135">
       <c r="A135">
-        <v>40510621.63646953</v>
+        <v>4352922.847943729</v>
       </c>
       <c r="B135">
-        <v>15180130.85107357</v>
+        <v>-951635.1761077289</v>
       </c>
       <c r="C135">
-        <v>65841112.42186549</v>
+        <v>9657480.871995186</v>
       </c>
       <c r="D135">
-        <v>1770979.015064649</v>
+        <v>-3759698.571722415</v>
       </c>
       <c r="E135">
-        <v>79250264.2578744</v>
+        <v>12465544.26760987</v>
       </c>
     </row>
     <row r="136">
       <c r="A136">
-        <v>41987861.5659764</v>
+        <v>4346453.397812681</v>
       </c>
       <c r="B136">
-        <v>16533202.78361286</v>
+        <v>-961036.2781111076</v>
       </c>
       <c r="C136">
-        <v>67442520.34833995</v>
+        <v>9653943.07373647</v>
       </c>
       <c r="D136">
-        <v>3058320.380493432</v>
+        <v>-3770651.596482421</v>
       </c>
       <c r="E136">
-        <v>80917402.75145938</v>
+        <v>12463558.39210778</v>
       </c>
     </row>
     <row r="137">
       <c r="A137">
-        <v>42888273.08643417</v>
+        <v>4339983.947681718</v>
       </c>
       <c r="B137">
-        <v>17309172.12540424</v>
+        <v>-970435.7616770668</v>
       </c>
       <c r="C137">
-        <v>68467374.0474641</v>
+        <v>9650403.657040503</v>
       </c>
       <c r="D137">
-        <v>3768414.012150392</v>
+        <v>-3781602.146056036</v>
       </c>
       <c r="E137">
-        <v>82008132.16071795</v>
+        <v>12461570.04141947</v>
       </c>
     </row>
     <row r="138">
       <c r="A138">
-        <v>44296880.64758419</v>
+        <v>4333514.497550823</v>
       </c>
       <c r="B138">
-        <v>18593064.21522477</v>
+        <v>-979833.6294830767</v>
       </c>
       <c r="C138">
-        <v>70000697.07994361</v>
+        <v>9646862.624584723</v>
       </c>
       <c r="D138">
-        <v>4986285.719439656</v>
+        <v>-3792550.224538086</v>
       </c>
       <c r="E138">
-        <v>83607475.57572873</v>
+        <v>12459579.21963973</v>
       </c>
     </row>
     <row r="139">
       <c r="A139">
-        <v>48789586.94343532</v>
+        <v>4327045.047419984</v>
       </c>
       <c r="B139">
-        <v>22960782.62764189</v>
+        <v>-989229.8841992309</v>
       </c>
       <c r="C139">
-        <v>74618391.25922875</v>
+        <v>9643319.9790392</v>
       </c>
       <c r="D139">
-        <v>9287839.543068215</v>
+        <v>-3803495.836012122</v>
       </c>
       <c r="E139">
-        <v>88291334.34380242</v>
+        <v>12457585.93085209</v>
       </c>
     </row>
     <row r="140">
       <c r="A140">
-        <v>44163629.52861107</v>
+        <v>4320575.597289192</v>
       </c>
       <c r="B140">
-        <v>18209565.78947172</v>
+        <v>-998624.5284882719</v>
       </c>
       <c r="C140">
-        <v>70117693.26775043</v>
+        <v>9639775.723066654</v>
       </c>
       <c r="D140">
-        <v>4470314.371563077</v>
+        <v>-3814438.984550452</v>
       </c>
       <c r="E140">
-        <v>83856944.68565907</v>
+        <v>12455590.17912883</v>
       </c>
     </row>
     <row r="141">
       <c r="A141">
-        <v>43493754.15205725</v>
+        <v>4314106.147158436</v>
       </c>
       <c r="B141">
-        <v>17414160.31359622</v>
+        <v>-1008017.565005623</v>
       </c>
       <c r="C141">
-        <v>69573347.99051827</v>
+        <v>9636229.859322496</v>
       </c>
       <c r="D141">
-        <v>3608457.275146373</v>
+        <v>-3825379.674214191</v>
       </c>
       <c r="E141">
-        <v>83379051.02896813</v>
+        <v>12453591.96853106</v>
       </c>
     </row>
   </sheetData>
